--- a/src/test/resources/testdata/EditContactData.xlsx
+++ b/src/test/resources/testdata/EditContactData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>newEmail</t>
   </si>
@@ -34,53 +34,32 @@
     <t>Doe</t>
   </si>
   <si>
-    <t>john.new@mail.com</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
     <t>cancel</t>
   </si>
   <si>
-    <t>Last Name is required</t>
-  </si>
-  <si>
     <t>firstName</t>
   </si>
   <si>
     <t>lastName</t>
   </si>
   <si>
-    <t>Jane</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>jane.new@mail.com</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>alice@mail.com</t>
-  </si>
-  <si>
     <t>validate</t>
+  </si>
+  <si>
+    <t>john.new@email.com</t>
+  </si>
+  <si>
+    <t>Validation failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -92,14 +71,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -111,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -119,35 +90,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -364,7 +317,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -376,12 +329,12 @@
     <col min="5" max="5" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -396,7 +349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -404,56 +357,52 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2147483647</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2147483647</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2147483647</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1234567890</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3">
-        <v>9876543210</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3">
-        <v>5555555555</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/EditContactData.xlsx
+++ b/src/test/resources/testdata/EditContactData.xlsx
@@ -28,12 +28,6 @@
     <t>action</t>
   </si>
   <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Doe</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
@@ -49,17 +43,23 @@
     <t>validate</t>
   </si>
   <si>
-    <t>john.new@email.com</t>
-  </si>
-  <si>
     <t>Validation failed</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>jane.new@email.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -70,6 +70,13 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -91,10 +98,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -102,8 +110,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -317,7 +329,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -331,10 +343,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -351,62 +363,67 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D2" s="2">
         <v>2147483647</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D3" s="2">
         <v>2147483647</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D4" s="2">
         <v>2147483647</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>